--- a/sharding_spreadsheets/module/mlp2.xlsx
+++ b/sharding_spreadsheets/module/mlp2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cman8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B75A2D-1CD9-4CFD-9D6E-EFBAD4CFA486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715752D0-F8D0-4CBE-B2F2-3F5E09C4DADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B1DA4911-2E6E-43BF-921A-7BCA564D2C42}"/>
   </bookViews>
